--- a/natmiOut/OldD7/LR-pairs_lrc2p/Angpt1-Tek.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Angpt1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tek</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>21.8780228513562</v>
+        <v>0.110507</v>
       </c>
       <c r="H2">
-        <v>21.8780228513562</v>
+        <v>0.331521</v>
       </c>
       <c r="I2">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="J2">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.7820291201924</v>
+        <v>64.221457</v>
       </c>
       <c r="N2">
-        <v>63.7820291201924</v>
+        <v>192.664371</v>
       </c>
       <c r="O2">
-        <v>0.8407542380561169</v>
+        <v>0.8366610301096816</v>
       </c>
       <c r="P2">
-        <v>0.8407542380561169</v>
+        <v>0.8366610301096816</v>
       </c>
       <c r="Q2">
-        <v>1395.424690597436</v>
+        <v>7.096920548699001</v>
       </c>
       <c r="R2">
-        <v>1395.424690597436</v>
+        <v>63.87228493829101</v>
       </c>
       <c r="S2">
-        <v>0.7833789818450154</v>
+        <v>0.003853399121115358</v>
       </c>
       <c r="T2">
-        <v>0.7833789818450154</v>
+        <v>0.003853399121115358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>21.8780228513562</v>
+        <v>0.110507</v>
       </c>
       <c r="H3">
-        <v>21.8780228513562</v>
+        <v>0.331521</v>
       </c>
       <c r="I3">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="J3">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.2705059593928</v>
+        <v>10.582537</v>
       </c>
       <c r="N3">
-        <v>10.2705059593928</v>
+        <v>31.747611</v>
       </c>
       <c r="O3">
-        <v>0.1353825134046481</v>
+        <v>0.1378666371208897</v>
       </c>
       <c r="P3">
-        <v>0.1353825134046481</v>
+        <v>0.1378666371208896</v>
       </c>
       <c r="Q3">
-        <v>224.6983640745857</v>
+        <v>1.169444416259</v>
       </c>
       <c r="R3">
-        <v>224.6983640745857</v>
+        <v>10.524999746331</v>
       </c>
       <c r="S3">
-        <v>0.1261436585270874</v>
+        <v>0.0006349706263277515</v>
       </c>
       <c r="T3">
-        <v>0.1261436585270874</v>
+        <v>0.0006349706263277514</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>21.8780228513562</v>
+        <v>0.110507</v>
       </c>
       <c r="H4">
-        <v>21.8780228513562</v>
+        <v>0.331521</v>
       </c>
       <c r="I4">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="J4">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.81033451196268</v>
+        <v>1.955236666666667</v>
       </c>
       <c r="N4">
-        <v>1.81033451196268</v>
+        <v>5.86571</v>
       </c>
       <c r="O4">
-        <v>0.023863248539235</v>
+        <v>0.02547233276942866</v>
       </c>
       <c r="P4">
-        <v>0.023863248539235</v>
+        <v>0.02547233276942866</v>
       </c>
       <c r="Q4">
-        <v>39.60653982131829</v>
+        <v>0.2160673383233334</v>
       </c>
       <c r="R4">
-        <v>39.60653982131829</v>
+        <v>1.94460604491</v>
       </c>
       <c r="S4">
-        <v>0.02223475838480723</v>
+        <v>0.0001173176007655176</v>
       </c>
       <c r="T4">
-        <v>0.02223475838480723</v>
+        <v>0.0001173176007655176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.60236258002801</v>
+        <v>22.14783133333333</v>
       </c>
       <c r="H5">
-        <v>1.60236258002801</v>
+        <v>66.443494</v>
       </c>
       <c r="I5">
-        <v>0.0682426012430899</v>
+        <v>0.9230726249214253</v>
       </c>
       <c r="J5">
-        <v>0.0682426012430899</v>
+        <v>0.9230726249214253</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.7820291201924</v>
+        <v>64.221457</v>
       </c>
       <c r="N5">
-        <v>63.7820291201924</v>
+        <v>192.664371</v>
       </c>
       <c r="O5">
-        <v>0.8407542380561169</v>
+        <v>0.8366610301096816</v>
       </c>
       <c r="P5">
-        <v>0.8407542380561169</v>
+        <v>0.8366610301096816</v>
       </c>
       <c r="Q5">
-        <v>102.2019367404531</v>
+        <v>1422.365997616919</v>
       </c>
       <c r="R5">
-        <v>102.2019367404531</v>
+        <v>12801.29397855228</v>
       </c>
       <c r="S5">
-        <v>0.05737525621110146</v>
+        <v>0.7722988932328074</v>
       </c>
       <c r="T5">
-        <v>0.05737525621110146</v>
+        <v>0.7722988932328074</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.60236258002801</v>
+        <v>22.14783133333333</v>
       </c>
       <c r="H6">
-        <v>1.60236258002801</v>
+        <v>66.443494</v>
       </c>
       <c r="I6">
-        <v>0.0682426012430899</v>
+        <v>0.9230726249214253</v>
       </c>
       <c r="J6">
-        <v>0.0682426012430899</v>
+        <v>0.9230726249214253</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.2705059593928</v>
+        <v>10.582537</v>
       </c>
       <c r="N6">
-        <v>10.2705059593928</v>
+        <v>31.747611</v>
       </c>
       <c r="O6">
-        <v>0.1353825134046481</v>
+        <v>0.1378666371208897</v>
       </c>
       <c r="P6">
-        <v>0.1353825134046481</v>
+        <v>0.1378666371208896</v>
       </c>
       <c r="Q6">
-        <v>16.4570744272857</v>
+        <v>234.3802445547593</v>
       </c>
       <c r="R6">
-        <v>16.4570744272857</v>
+        <v>2109.422200992834</v>
       </c>
       <c r="S6">
-        <v>0.009238854877560671</v>
+        <v>0.1272609186162692</v>
       </c>
       <c r="T6">
-        <v>0.009238854877560671</v>
+        <v>0.1272609186162692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>22.14783133333333</v>
+      </c>
+      <c r="H7">
+        <v>66.443494</v>
+      </c>
+      <c r="I7">
+        <v>0.9230726249214253</v>
+      </c>
+      <c r="J7">
+        <v>0.9230726249214253</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.955236666666667</v>
+      </c>
+      <c r="N7">
+        <v>5.86571</v>
+      </c>
+      <c r="O7">
+        <v>0.02547233276942866</v>
+      </c>
+      <c r="P7">
+        <v>0.02547233276942866</v>
+      </c>
+      <c r="Q7">
+        <v>43.30425191008222</v>
+      </c>
+      <c r="R7">
+        <v>389.73826719074</v>
+      </c>
+      <c r="S7">
+        <v>0.02351281307234855</v>
+      </c>
+      <c r="T7">
+        <v>0.02351281307234855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.735257333333333</v>
+      </c>
+      <c r="H8">
+        <v>5.205772</v>
+      </c>
+      <c r="I8">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="J8">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>64.221457</v>
+      </c>
+      <c r="N8">
+        <v>192.664371</v>
+      </c>
+      <c r="O8">
+        <v>0.8366610301096816</v>
+      </c>
+      <c r="P8">
+        <v>0.8366610301096816</v>
+      </c>
+      <c r="Q8">
+        <v>111.4407542166013</v>
+      </c>
+      <c r="R8">
+        <v>1002.966787949412</v>
+      </c>
+      <c r="S8">
+        <v>0.06050873775575888</v>
+      </c>
+      <c r="T8">
+        <v>0.06050873775575888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.60236258002801</v>
-      </c>
-      <c r="H7">
-        <v>1.60236258002801</v>
-      </c>
-      <c r="I7">
-        <v>0.0682426012430899</v>
-      </c>
-      <c r="J7">
-        <v>0.0682426012430899</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.81033451196268</v>
-      </c>
-      <c r="N7">
-        <v>1.81033451196268</v>
-      </c>
-      <c r="O7">
-        <v>0.023863248539235</v>
-      </c>
-      <c r="P7">
-        <v>0.023863248539235</v>
-      </c>
-      <c r="Q7">
-        <v>2.900812279302268</v>
-      </c>
-      <c r="R7">
-        <v>2.900812279302268</v>
-      </c>
-      <c r="S7">
-        <v>0.001628490154427761</v>
-      </c>
-      <c r="T7">
-        <v>0.001628490154427761</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.735257333333333</v>
+      </c>
+      <c r="H9">
+        <v>5.205772</v>
+      </c>
+      <c r="I9">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="J9">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>10.582537</v>
+      </c>
+      <c r="N9">
+        <v>31.747611</v>
+      </c>
+      <c r="O9">
+        <v>0.1378666371208897</v>
+      </c>
+      <c r="P9">
+        <v>0.1378666371208896</v>
+      </c>
+      <c r="Q9">
+        <v>18.36342493452133</v>
+      </c>
+      <c r="R9">
+        <v>165.270824410692</v>
+      </c>
+      <c r="S9">
+        <v>0.009970747878292691</v>
+      </c>
+      <c r="T9">
+        <v>0.009970747878292689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.735257333333333</v>
+      </c>
+      <c r="H10">
+        <v>5.205772</v>
+      </c>
+      <c r="I10">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="J10">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.955236666666667</v>
+      </c>
+      <c r="N10">
+        <v>5.86571</v>
+      </c>
+      <c r="O10">
+        <v>0.02547233276942866</v>
+      </c>
+      <c r="P10">
+        <v>0.02547233276942866</v>
+      </c>
+      <c r="Q10">
+        <v>3.392838764235556</v>
+      </c>
+      <c r="R10">
+        <v>30.53554887812</v>
+      </c>
+      <c r="S10">
+        <v>0.001842202096314593</v>
+      </c>
+      <c r="T10">
+        <v>0.001842202096314592</v>
       </c>
     </row>
   </sheetData>
